--- a/BiSS.Projects.RPGen/Data/object2.xlsx
+++ b/BiSS.Projects.RPGen/Data/object2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3B920120-4FE3-4B34-9731-A25D08957F77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BE36043B-2DA6-492F-B88D-33C08EAEEA57}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,172 +450,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵宇堃</t>
-  </si>
-  <si>
-    <t>任鹏飞</t>
-  </si>
-  <si>
-    <t>刘浩坤</t>
-  </si>
-  <si>
-    <t>张牧原</t>
-  </si>
-  <si>
-    <t>杨燕妮</t>
-  </si>
-  <si>
-    <t>孟怀宇</t>
-  </si>
-  <si>
-    <t>田润泽</t>
-  </si>
-  <si>
-    <t>赵梁文</t>
-  </si>
-  <si>
-    <t>赵圣哲</t>
-  </si>
-  <si>
-    <t>王皓</t>
-  </si>
-  <si>
-    <t>张幼奇</t>
-  </si>
-  <si>
-    <t>王子豪</t>
-  </si>
-  <si>
-    <t>赵玉筱</t>
-  </si>
-  <si>
-    <t>李美琪</t>
-  </si>
-  <si>
-    <t>刘一霖</t>
-  </si>
-  <si>
-    <t>王若宏</t>
-  </si>
-  <si>
-    <t>王天润</t>
-  </si>
-  <si>
-    <t>郝中豪</t>
-  </si>
-  <si>
-    <t>郑天姣</t>
-  </si>
-  <si>
-    <t>李瑞</t>
-  </si>
-  <si>
-    <t>张凯</t>
-  </si>
-  <si>
-    <t>郭柏杉</t>
-  </si>
-  <si>
-    <t>李琳菡</t>
-  </si>
-  <si>
-    <t>赵梦真</t>
-  </si>
-  <si>
-    <t>张超涵</t>
-  </si>
-  <si>
-    <t>裴梦雪</t>
-  </si>
-  <si>
-    <t>陈思萌</t>
-  </si>
-  <si>
-    <t>赵浩冉</t>
-  </si>
-  <si>
-    <t>徐扬</t>
-  </si>
-  <si>
-    <t>吕艺</t>
-  </si>
-  <si>
-    <t>张丽萍</t>
-  </si>
-  <si>
-    <t>刘修宏</t>
-  </si>
-  <si>
-    <t>李田雨</t>
-  </si>
-  <si>
-    <t>杨明震</t>
-  </si>
-  <si>
-    <t>张撰</t>
-  </si>
-  <si>
-    <t>徐瑞</t>
-  </si>
-  <si>
-    <t>高慧</t>
-  </si>
-  <si>
-    <t>赵文哲</t>
-  </si>
-  <si>
-    <t>范一可</t>
-  </si>
-  <si>
-    <t>赵曼婧</t>
-  </si>
-  <si>
-    <t>谢长彬</t>
-  </si>
-  <si>
-    <t>艾文哲</t>
-  </si>
-  <si>
-    <t>郭雅琪</t>
-  </si>
-  <si>
-    <t>霍敏</t>
-  </si>
-  <si>
-    <t>何书凝</t>
-  </si>
-  <si>
-    <t>金宪融</t>
-  </si>
-  <si>
-    <t>陈思含</t>
-  </si>
-  <si>
-    <t>史靖坤</t>
-  </si>
-  <si>
-    <t>卢明康</t>
-  </si>
-  <si>
-    <t>张善羿</t>
-  </si>
-  <si>
-    <t>肖淑琪</t>
-  </si>
-  <si>
-    <t>邝宇航</t>
-  </si>
-  <si>
-    <t>娄焕奇</t>
-  </si>
-  <si>
-    <t>张越超</t>
-  </si>
-  <si>
-    <t>张慧</t>
-  </si>
-  <si>
-    <t>艾迪</t>
+    <t>学生1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生3</t>
+  </si>
+  <si>
+    <t>学生4</t>
+  </si>
+  <si>
+    <t>学生5</t>
+  </si>
+  <si>
+    <t>学生6</t>
+  </si>
+  <si>
+    <t>学生7</t>
+  </si>
+  <si>
+    <t>学生8</t>
+  </si>
+  <si>
+    <t>学生9</t>
+  </si>
+  <si>
+    <t>学生10</t>
+  </si>
+  <si>
+    <t>学生11</t>
+  </si>
+  <si>
+    <t>学生12</t>
+  </si>
+  <si>
+    <t>学生13</t>
+  </si>
+  <si>
+    <t>学生14</t>
+  </si>
+  <si>
+    <t>学生15</t>
+  </si>
+  <si>
+    <t>学生16</t>
+  </si>
+  <si>
+    <t>学生18</t>
+  </si>
+  <si>
+    <t>学生19</t>
+  </si>
+  <si>
+    <t>学生20</t>
+  </si>
+  <si>
+    <t>学生21</t>
+  </si>
+  <si>
+    <t>学生22</t>
+  </si>
+  <si>
+    <t>学生23</t>
+  </si>
+  <si>
+    <t>学生24</t>
+  </si>
+  <si>
+    <t>学生25</t>
+  </si>
+  <si>
+    <t>学生26</t>
+  </si>
+  <si>
+    <t>学生27</t>
+  </si>
+  <si>
+    <t>学生28</t>
+  </si>
+  <si>
+    <t>学生29</t>
+  </si>
+  <si>
+    <t>学生30</t>
+  </si>
+  <si>
+    <t>学生31</t>
+  </si>
+  <si>
+    <t>学生32</t>
+  </si>
+  <si>
+    <t>学生33</t>
+  </si>
+  <si>
+    <t>学生34</t>
+  </si>
+  <si>
+    <t>学生35</t>
+  </si>
+  <si>
+    <t>学生36</t>
+  </si>
+  <si>
+    <t>学生37</t>
+  </si>
+  <si>
+    <t>学生38</t>
+  </si>
+  <si>
+    <t>学生39</t>
+  </si>
+  <si>
+    <t>学生41</t>
+  </si>
+  <si>
+    <t>学生42</t>
+  </si>
+  <si>
+    <t>学生43</t>
+  </si>
+  <si>
+    <t>学生44</t>
+  </si>
+  <si>
+    <t>学生2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生17</t>
+  </si>
+  <si>
+    <t>学生40</t>
+  </si>
+  <si>
+    <t>学生45</t>
+  </si>
+  <si>
+    <t>学生46</t>
+  </si>
+  <si>
+    <t>学生47</t>
+  </si>
+  <si>
+    <t>学生48</t>
+  </si>
+  <si>
+    <t>学生49</t>
+  </si>
+  <si>
+    <t>学生50</t>
+  </si>
+  <si>
+    <t>学生51</t>
+  </si>
+  <si>
+    <t>学生52</t>
+  </si>
+  <si>
+    <t>学生53</t>
+  </si>
+  <si>
+    <t>学生54</t>
+  </si>
+  <si>
+    <t>学生55</t>
+  </si>
+  <si>
+    <t>学生56</t>
   </si>
 </sst>
 </file>
@@ -789,16 +791,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="typical" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1088,8 +1090,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+      <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1108,8 +1110,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1118,39 +1120,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:6" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:6" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1190,8 +1192,8 @@
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1223,8 +1225,8 @@
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1451,8 +1453,8 @@
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
+    <row r="40" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1525,13 +1527,18 @@
       </c>
     </row>
     <row r="54" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="14" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="A40:XFD40"/>
     <mergeCell ref="A54:XFD54"/>
     <mergeCell ref="A56:XFD56"/>
@@ -1546,11 +1553,6 @@
     <mergeCell ref="A10:XFD10"/>
     <mergeCell ref="A11:XFD11"/>
     <mergeCell ref="A12:XFD12"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A5:XFD5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1562,9 +1564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:AE57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1673,7 +1675,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="11">
-        <v>21700381</v>
+        <v>1</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -1765,10 +1767,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="B3" s="11">
-        <v>21700201</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -1860,10 +1862,10 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="11">
-        <v>21700146</v>
+        <v>1</v>
       </c>
       <c r="C4" s="10">
         <v>3</v>
@@ -1955,10 +1957,10 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="11">
-        <v>21700343</v>
+        <v>1</v>
       </c>
       <c r="C5" s="10">
         <v>4</v>
@@ -2050,10 +2052,10 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="11">
-        <v>21700309</v>
+        <v>1</v>
       </c>
       <c r="C6" s="10">
         <v>5</v>
@@ -2145,10 +2147,10 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="11">
-        <v>21700184</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10">
         <v>6</v>
@@ -2240,10 +2242,10 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="11">
-        <v>21700228</v>
+        <v>1</v>
       </c>
       <c r="C8" s="11">
         <v>7</v>
@@ -2335,10 +2337,10 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="11">
-        <v>21700372</v>
+        <v>1</v>
       </c>
       <c r="C9" s="10">
         <v>8</v>
@@ -2430,10 +2432,10 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="11">
-        <v>21700376</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10">
         <v>9</v>
@@ -2525,10 +2527,10 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="11">
-        <v>21700237</v>
+        <v>1</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -2620,10 +2622,10 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="11">
-        <v>21700360</v>
+        <v>1</v>
       </c>
       <c r="C12" s="10">
         <v>11</v>
@@ -2715,10 +2717,10 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="11">
-        <v>21700273</v>
+        <v>1</v>
       </c>
       <c r="C13" s="10">
         <v>12</v>
@@ -2810,10 +2812,10 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="11">
-        <v>21700383</v>
+        <v>1</v>
       </c>
       <c r="C14" s="10">
         <v>13</v>
@@ -2905,10 +2907,10 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="11">
-        <v>21700114</v>
+        <v>1</v>
       </c>
       <c r="C15" s="10">
         <v>14</v>
@@ -3000,10 +3002,10 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="11">
-        <v>21700164</v>
+        <v>1</v>
       </c>
       <c r="C16" s="10">
         <v>15</v>
@@ -3095,10 +3097,10 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="11">
-        <v>21700252</v>
+        <v>1</v>
       </c>
       <c r="C17" s="10">
         <v>16</v>
@@ -3190,10 +3192,10 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B18" s="11">
-        <v>21700647</v>
+        <v>1</v>
       </c>
       <c r="C18" s="10">
         <v>16</v>
@@ -3285,10 +3287,10 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B19" s="11">
-        <v>21700069</v>
+        <v>1</v>
       </c>
       <c r="C19" s="10">
         <v>18</v>
@@ -3380,10 +3382,10 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="11">
-        <v>21700784</v>
+        <v>1</v>
       </c>
       <c r="C20" s="10">
         <v>19</v>
@@ -3475,10 +3477,10 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B21" s="11">
-        <v>21700510</v>
+        <v>1</v>
       </c>
       <c r="C21" s="10">
         <v>20</v>
@@ -3570,10 +3572,10 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B22" s="11">
-        <v>21700337</v>
+        <v>1</v>
       </c>
       <c r="C22" s="10">
         <v>21</v>
@@ -3665,10 +3667,10 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B23" s="11">
-        <v>21700054</v>
+        <v>1</v>
       </c>
       <c r="C23" s="10">
         <v>22</v>
@@ -3760,10 +3762,10 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="11">
-        <v>21700505</v>
+        <v>1</v>
       </c>
       <c r="C24" s="10">
         <v>23</v>
@@ -3855,10 +3857,10 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B25" s="11">
-        <v>21700771</v>
+        <v>1</v>
       </c>
       <c r="C25" s="10">
         <v>24</v>
@@ -3950,10 +3952,10 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B26" s="11">
-        <v>21700725</v>
+        <v>1</v>
       </c>
       <c r="C26" s="10">
         <v>25</v>
@@ -4045,10 +4047,10 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B27" s="11">
-        <v>21700590</v>
+        <v>1</v>
       </c>
       <c r="C27" s="10">
         <v>26</v>
@@ -4140,10 +4142,10 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B28" s="11">
-        <v>21700421</v>
+        <v>1</v>
       </c>
       <c r="C28" s="10">
         <v>27</v>
@@ -4235,10 +4237,10 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B29" s="11">
-        <v>21700769</v>
+        <v>1</v>
       </c>
       <c r="C29" s="10">
         <v>28</v>
@@ -4330,10 +4332,10 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B30" s="11">
-        <v>21700919</v>
+        <v>1</v>
       </c>
       <c r="C30" s="10">
         <v>29</v>
@@ -4425,10 +4427,10 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B31" s="11">
-        <v>21700571</v>
+        <v>1</v>
       </c>
       <c r="C31" s="10">
         <v>30</v>
@@ -4520,10 +4522,10 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B32" s="11">
-        <v>21700962</v>
+        <v>1</v>
       </c>
       <c r="C32" s="10">
         <v>31</v>
@@ -4615,10 +4617,10 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B33" s="11">
-        <v>21701050</v>
+        <v>1</v>
       </c>
       <c r="C33" s="10">
         <v>32</v>
@@ -4710,10 +4712,10 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B34" s="11">
-        <v>21701344</v>
+        <v>1</v>
       </c>
       <c r="C34" s="10">
         <v>33</v>
@@ -4805,10 +4807,10 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B35" s="11">
-        <v>21700880</v>
+        <v>1</v>
       </c>
       <c r="C35" s="10">
         <v>34</v>
@@ -4900,10 +4902,10 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B36" s="11">
-        <v>21701101</v>
+        <v>1</v>
       </c>
       <c r="C36" s="10">
         <v>35</v>
@@ -4995,10 +4997,10 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B37" s="11">
-        <v>21701485</v>
+        <v>1</v>
       </c>
       <c r="C37" s="10">
         <v>36</v>
@@ -5090,10 +5092,10 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B38" s="11">
-        <v>21701271</v>
+        <v>1</v>
       </c>
       <c r="C38" s="10">
         <v>37</v>
@@ -5185,10 +5187,10 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B39" s="11">
-        <v>21701039</v>
+        <v>1</v>
       </c>
       <c r="C39" s="10">
         <v>38</v>
@@ -5280,10 +5282,10 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B40" s="11">
-        <v>21700827</v>
+        <v>1</v>
       </c>
       <c r="C40" s="10">
         <v>39</v>
@@ -5375,10 +5377,10 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B41" s="11">
-        <v>21701059</v>
+        <v>1</v>
       </c>
       <c r="C41" s="10">
         <v>39</v>
@@ -5470,10 +5472,10 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B42" s="11">
-        <v>21701277</v>
+        <v>1</v>
       </c>
       <c r="C42" s="10">
         <v>41</v>
@@ -5565,10 +5567,10 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B43" s="11">
-        <v>21701261</v>
+        <v>1</v>
       </c>
       <c r="C43" s="10">
         <v>42</v>
@@ -5660,10 +5662,10 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B44" s="11">
-        <v>21701381</v>
+        <v>1</v>
       </c>
       <c r="C44" s="10">
         <v>43</v>
@@ -5755,10 +5757,10 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B45" s="11">
-        <v>21701257</v>
+        <v>1</v>
       </c>
       <c r="C45" s="10">
         <v>44</v>
@@ -5853,7 +5855,7 @@
         <v>144</v>
       </c>
       <c r="B46" s="11">
-        <v>21701291</v>
+        <v>1</v>
       </c>
       <c r="C46" s="10">
         <v>45</v>
@@ -5948,7 +5950,7 @@
         <v>145</v>
       </c>
       <c r="B47" s="11">
-        <v>21701312</v>
+        <v>1</v>
       </c>
       <c r="C47" s="10">
         <v>46</v>
@@ -6043,7 +6045,7 @@
         <v>146</v>
       </c>
       <c r="B48" s="11">
-        <v>21701300</v>
+        <v>1</v>
       </c>
       <c r="C48" s="10">
         <v>47</v>
@@ -6138,7 +6140,7 @@
         <v>147</v>
       </c>
       <c r="B49" s="11">
-        <v>21701516</v>
+        <v>1</v>
       </c>
       <c r="C49" s="10">
         <v>48</v>
@@ -6233,7 +6235,7 @@
         <v>148</v>
       </c>
       <c r="B50" s="11">
-        <v>21701106</v>
+        <v>1</v>
       </c>
       <c r="C50" s="10">
         <v>49</v>
@@ -6328,7 +6330,7 @@
         <v>149</v>
       </c>
       <c r="B51" s="11">
-        <v>21701434</v>
+        <v>1</v>
       </c>
       <c r="C51" s="10">
         <v>50</v>
@@ -6423,7 +6425,7 @@
         <v>150</v>
       </c>
       <c r="B52" s="11">
-        <v>21701503</v>
+        <v>1</v>
       </c>
       <c r="C52" s="10">
         <v>51</v>
@@ -6518,7 +6520,7 @@
         <v>151</v>
       </c>
       <c r="B53" s="11">
-        <v>21701311</v>
+        <v>1</v>
       </c>
       <c r="C53" s="10">
         <v>52</v>
@@ -6613,7 +6615,7 @@
         <v>152</v>
       </c>
       <c r="B54" s="11">
-        <v>21701302</v>
+        <v>1</v>
       </c>
       <c r="C54" s="10">
         <v>53</v>
@@ -6708,7 +6710,7 @@
         <v>153</v>
       </c>
       <c r="B55" s="11">
-        <v>21701567</v>
+        <v>1</v>
       </c>
       <c r="C55" s="10">
         <v>54</v>
@@ -6803,7 +6805,7 @@
         <v>154</v>
       </c>
       <c r="B56" s="11">
-        <v>21701528</v>
+        <v>1</v>
       </c>
       <c r="C56" s="10">
         <v>55</v>
@@ -6898,7 +6900,7 @@
         <v>155</v>
       </c>
       <c r="B57" s="11">
-        <v>21701479</v>
+        <v>1</v>
       </c>
       <c r="C57" s="10">
         <v>56</v>
